--- a/data/trans_camb/P30_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P30_R-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>17,83</t>
+          <t>16,53</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,43</t>
+          <t>14,9</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13,23</t>
+          <t>13,72</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,76</t>
+          <t>11,07</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>15,5</t>
+          <t>4,09</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,95</t>
+          <t>13,01</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>13,66</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>9,69</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>13,44</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,51; 34,05</t>
+          <t>-6,65; 36,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,19; 24,02</t>
+          <t>-8,41; 35,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 29,58</t>
+          <t>-9,07; 33,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,75; 25,28</t>
+          <t>-5,36; 30,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,6; 27,27</t>
+          <t>-13,84; 19,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 19,46</t>
+          <t>-3,86; 30,8</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-0,61; 26,69</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-3,55; 24,96</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-2,15; 26,67</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>79,84%</t>
+          <t>80,85%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>33,25%</t>
+          <t>72,87%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>53,17%</t>
+          <t>67,11%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>27,17%</t>
+          <t>58,16%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>65,5%</t>
+          <t>21,47%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>29,38%</t>
+          <t>68,34%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>69,48%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>49,3%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>68,38%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 244,71</t>
+          <t>-27,23; 386,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-33,7; 169,55</t>
+          <t>-32,7; 357,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-9,77; 169,19</t>
+          <t>-36,28; 336,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-32,68; 143,1</t>
+          <t>-23,91; 286,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,47; 149,24</t>
+          <t>-48,21; 176,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-18,92; 110,74</t>
+          <t>-19,56; 271,05</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-4,01; 199,57</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-17,67; 185,12</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-9,71; 209,54</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,29</t>
+          <t>-2,04</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,64</t>
+          <t>5,33</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,35</t>
+          <t>5,7</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,21</t>
+          <t>4,87</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>8,12</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1,35</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2,62</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>5,76</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-19,27; 12,61</t>
+          <t>-18,7; 14,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-15,57; 16,64</t>
+          <t>-18,75; 18,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 22,67</t>
+          <t>-15,8; 26,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,43; 17,04</t>
+          <t>-13,9; 21,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,01; 13,93</t>
+          <t>-13,41; 22,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,25; 12,61</t>
+          <t>-11,73; 24,17</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-10,98; 14,73</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-11,57; 15,66</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-8,55; 20,93</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-13,31%</t>
+          <t>-11,91%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>8,91%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>44,85%</t>
+          <t>31,03%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15,57%</t>
+          <t>21,51%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>13,95%</t>
+          <t>18,38%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,23%</t>
+          <t>30,64%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6,2%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>12,03%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>26,45%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-56,86; 80,32</t>
+          <t>-70,22; 150,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-48,28; 100,41</t>
+          <t>-62,54; 194,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-12,73; 154,53</t>
+          <t>-56,92; 262,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-32,33; 111,69</t>
+          <t>-38,23; 113,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-25,58; 75,65</t>
+          <t>-40,58; 118,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-29,99; 67,75</t>
+          <t>-37,69; 124,49</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-39,6; 94,26</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-41,78; 98,02</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-28,84; 136,38</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,01</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,57</t>
+          <t>-11,39</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-6,06</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4,27</t>
+          <t>-13,15</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,61</t>
+          <t>-5,72</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1,0</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-7,06</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-7,77</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-15,99; 22,38</t>
+          <t>-17,1; 17,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-18,62; 18,75</t>
+          <t>-15,69; 18,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 14,86</t>
+          <t>-25,79; 6,54</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-15,9; 4,32</t>
+          <t>-9,99; 14,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 14,13</t>
+          <t>-23,08; -2,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-13,67; 7,49</t>
+          <t>-17,82; 6,82</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-9,02; 11,32</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-17,64; 2,24</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-17,67; 2,06</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>12,32%</t>
+          <t>-0,81%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>20,8%</t>
+          <t>-35,64%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-27,6%</t>
+          <t>6,91%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>15,83%</t>
+          <t>-54,42%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-9,68%</t>
+          <t>-23,66%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>3,68%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-26,02%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-28,64%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-37,18; 102,05</t>
+          <t>-41,9; 83,17</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-45,71; 83,84</t>
+          <t>-39,13; 81,72</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-19,34; 92,67</t>
+          <t>-67,0; 30,92</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-56,27; 28,11</t>
+          <t>-33,94; 86,35</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-24,88; 62,36</t>
+          <t>-78,39; -12,45</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-41,1; 35,28</t>
+          <t>-57,47; 36,6</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-28,45; 53,56</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-53,24; 12,41</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-54,72; 10,3</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>-6,25</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>-4,52</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,14</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,28</t>
+          <t>0,32</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-2,35</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-1,55</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1,06</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,64; 9,13</t>
+          <t>-19,54; 5,67</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,07; 12,09</t>
+          <t>-18,3; 9,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 12,27</t>
+          <t>-12,9; 16,32</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 9,05</t>
+          <t>-9,53; 10,72</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 8,28</t>
+          <t>-9,3; 10,69</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 7,73</t>
+          <t>-10,17; 10,96</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-10,58; 5,78</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-9,69; 6,75</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-6,94; 9,93</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-2,64%</t>
+          <t>-26,13%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>-18,91%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>27,06%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>6,07%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>11,7%</t>
+          <t>5,74%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>7,3%</t>
+          <t>1,99%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-11,88%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-7,84%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>5,35%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-42,37; 55,29</t>
+          <t>-62,33; 38,07</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-34,06; 80,06</t>
+          <t>-58,94; 57,43</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-23,16; 105,6</t>
+          <t>-44,5; 95,79</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-37,96; 74,76</t>
+          <t>-45,36; 105,1</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-21,19; 57,5</t>
+          <t>-44,03; 99,29</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-22,5; 53,31</t>
+          <t>-48,99; 94,88</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-43,79; 40,66</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-40,04; 50,31</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-29,97; 68,02</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>3,28</t>
+          <t>1,58</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>6,56</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-1,09</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>-5,64</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>2,12</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,89</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-2,33</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>4,22</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 12,67</t>
+          <t>-10,23; 13,77</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-9,62; 9,32</t>
+          <t>-11,65; 12,51</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-9,8; 8,24</t>
+          <t>-6,22; 21,27</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-9,03; 8,61</t>
+          <t>-11,66; 11,62</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 7,58</t>
+          <t>-16,54; 5,08</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,73; 6,03</t>
+          <t>-10,43; 17,18</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-7,62; 9,75</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-10,99; 6,12</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-4,96; 14,32</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>22,49%</t>
+          <t>9,95%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-1,15%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-13,2%</t>
+          <t>41,24%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-9,38%</t>
+          <t>-2,08%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>7,33%</t>
+          <t>-54,57%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-4,94%</t>
+          <t>20,51%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>6,56%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-17,23%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>31,18%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-37,03; 120,85</t>
+          <t>-48,55; 151,41</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-51,05; 86,38</t>
+          <t>-53,0; 140,65</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-62,63; 132,41</t>
+          <t>-32,96; 228,59</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-61,25; 119,08</t>
+          <t>-76,88; 362,31</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-33,4; 76,87</t>
+          <t>-100,0; 273,44</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-42,42; 61,55</t>
+          <t>-75,82; 411,39</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-43,13; 109,69</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-59,67; 69,94</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-27,77; 163,79</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2,15</t>
+          <t>2,43</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-4,75</t>
+          <t>6,44</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-3,2</t>
+          <t>-1,75</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-1,73</t>
+          <t>-1,48</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>8,66</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>0,12</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-1,05</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>7,8</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 10,38</t>
+          <t>-6,92; 14,41</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 13,81</t>
+          <t>-11,56; 8,62</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-17,42; 4,5</t>
+          <t>-5,45; 20,22</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-15,61; 9,79</t>
+          <t>-14,04; 6,57</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-9,75; 5,17</t>
+          <t>-11,88; 12,83</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-8,09; 8,97</t>
+          <t>-6,47; 40,69</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-7,58; 7,89</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-8,9; 7,04</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-2,91; 27,97</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>33,04%</t>
+          <t>44,24%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>69,05%</t>
+          <t>-9,51%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-35,51%</t>
+          <t>117,3%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-23,94%</t>
+          <t>-28,93%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-16,67%</t>
+          <t>-24,38%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>143,02%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>2,01%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>-18,11%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>134,34%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-65,38; 403,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-46,17; 509,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-79,75; 67,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-82,89; 140,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-60,88; 83,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-58,28; 126,37</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>-79,76; 712,38</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>-57,4; 1923,07</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>3,97</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>2,57</t>
+          <t>2,08</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>4,33</t>
+          <t>2,93</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>2,81</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>4,18</t>
+          <t>-2,6</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>2,56</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>2,07</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>-0,26</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>2,79</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 10,25</t>
+          <t>-5,0; 8,12</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 8,52</t>
+          <t>-5,1; 8,78</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 9,29</t>
+          <t>-4,2; 10,67</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 5,16</t>
+          <t>-2,62; 9,07</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 7,75</t>
+          <t>-7,95; 2,84</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 5,12</t>
+          <t>-3,29; 10,55</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-2,5; 6,54</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-4,6; 4,16</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>-1,7; 8,22</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>18,7%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>12,12%</t>
+          <t>10,41%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>23,81%</t>
+          <t>14,65%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-1,37%</t>
+          <t>15,42%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>21,29%</t>
+          <t>-14,26%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>14,06%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>10,88%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>-1,39%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>14,62%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-12,1; 55,25</t>
+          <t>-22,46; 48,11</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-17,09; 46,46</t>
+          <t>-22,03; 50,82</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 58,14</t>
+          <t>-19,26; 62,7</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-24,85; 32,38</t>
+          <t>-13,08; 59,54</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 44,43</t>
+          <t>-38,07; 19,96</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-12,94; 28,36</t>
+          <t>-16,19; 68,31</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-11,4; 39,1</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-21,77; 24,46</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-8,33; 46,82</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
